--- a/Excel 對照檔 (合約4所)/PS015彰化.xlsx
+++ b/Excel 對照檔 (合約4所)/PS015彰化.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">資料!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10160" uniqueCount="2124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10166" uniqueCount="2125">
   <si>
     <t>B1 Name</t>
   </si>
@@ -6434,6 +6434,9 @@
   </si>
   <si>
     <t>69kV BUS CTFA</t>
+  </si>
+  <si>
+    <t>山姆線(1980)</t>
   </si>
 </sst>
 </file>
@@ -6865,14 +6868,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN544"/>
+  <dimension ref="A1:AN545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="V398" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="Z520" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="I545" sqref="I545:AE545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43952,6 +43955,32 @@
         <v>2088</v>
       </c>
     </row>
+    <row r="545" spans="1:40">
+      <c r="A545" t="s">
+        <v>31</v>
+      </c>
+      <c r="B545" t="s">
+        <v>32</v>
+      </c>
+      <c r="C545">
+        <v>69</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E545">
+        <v>1980</v>
+      </c>
+      <c r="F545" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H545" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN545" t="s">
+        <v>2088</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel 對照檔 (合約4所)/PS015彰化.xlsx
+++ b/Excel 對照檔 (合約4所)/PS015彰化.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">資料!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10160" uniqueCount="2124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10165" uniqueCount="2126">
   <si>
     <t>B1 Name</t>
   </si>
@@ -6434,13 +6434,21 @@
   </si>
   <si>
     <t>69kV BUS CTFA</t>
+  </si>
+  <si>
+    <t>山姆線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -6472,6 +6480,13 @@
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6518,7 +6533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6555,9 +6570,10 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6578,7 +6594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6865,14 +6881,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN544"/>
+  <dimension ref="A1:AN545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="V398" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="V517" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="H546" sqref="H546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -43952,6 +43968,29 @@
         <v>2088</v>
       </c>
     </row>
+    <row r="545" spans="1:8" ht="14.25">
+      <c r="A545" t="s">
+        <v>31</v>
+      </c>
+      <c r="B545" t="s">
+        <v>32</v>
+      </c>
+      <c r="C545">
+        <v>69</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E545">
+        <v>1980</v>
+      </c>
+      <c r="F545" s="16" t="s">
+        <v>2124</v>
+      </c>
+      <c r="H545" t="s">
+        <v>2125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
